--- a/SprayProcessSCADASystemOnWinform/SprayProcessSCADASystemOnWinform/bin/Debug/net8.0-windows/PLC_Var_Config.xlsx
+++ b/SprayProcessSCADASystemOnWinform/SprayProcessSCADASystemOnWinform/bin/Debug/net8.0-windows/PLC_Var_Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pragma\C# Project\SprayProcessSCADASystemOnWinform\SprayProcessSCADASystemOnWinform\bin\Debug\net8.0-windows\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{6C40CFD9-F7D7-4518-B5C7-80A6F531AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -476,9 +480,6 @@
     <t>115KW</t>
   </si>
   <si>
-    <t>粗洗液位下限值</t>
-  </si>
-  <si>
     <t>M3012</t>
   </si>
   <si>
@@ -500,89 +501,89 @@
     <t>112KW</t>
   </si>
   <si>
-    <t>精洗液位下限值</t>
+    <t>1.1立方米</t>
+  </si>
+  <si>
+    <t>水分炉温度上限值</t>
+  </si>
+  <si>
+    <t>M3028</t>
+  </si>
+  <si>
+    <t>300摄氏度</t>
+  </si>
+  <si>
+    <t>水分炉温度下限值</t>
+  </si>
+  <si>
+    <t>M3032</t>
+  </si>
+  <si>
+    <t>280摄氏度</t>
+  </si>
+  <si>
+    <t>冷却室离心风机过载上限值</t>
+  </si>
+  <si>
+    <t>M3036</t>
+  </si>
+  <si>
+    <t>110KW</t>
+  </si>
+  <si>
+    <t>固化炉温度上限值</t>
+  </si>
+  <si>
+    <t>M3040</t>
+  </si>
+  <si>
+    <t>500摄氏度</t>
+  </si>
+  <si>
+    <t>固化炉温度下限值</t>
+  </si>
+  <si>
+    <t>M3044</t>
+  </si>
+  <si>
+    <t>480摄氏度</t>
+  </si>
+  <si>
+    <t>输送机设定速度</t>
+  </si>
+  <si>
+    <t>M3048</t>
+  </si>
+  <si>
+    <t>0.1m/s</t>
+  </si>
+  <si>
+    <t>输送机设定频率</t>
+  </si>
+  <si>
+    <t>M3052</t>
+  </si>
+  <si>
+    <t>30HZ</t>
+  </si>
+  <si>
+    <t>粗洗液液位下限值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精洗液液位下限值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>M3024</t>
-  </si>
-  <si>
-    <t>1.1立方米</t>
-  </si>
-  <si>
-    <t>水分炉温度上限值</t>
-  </si>
-  <si>
-    <t>M3028</t>
-  </si>
-  <si>
-    <t>300摄氏度</t>
-  </si>
-  <si>
-    <t>水分炉温度下限值</t>
-  </si>
-  <si>
-    <t>M3032</t>
-  </si>
-  <si>
-    <t>280摄氏度</t>
-  </si>
-  <si>
-    <t>冷却室离心风机过载上限值</t>
-  </si>
-  <si>
-    <t>M3036</t>
-  </si>
-  <si>
-    <t>110KW</t>
-  </si>
-  <si>
-    <t>固化炉温度上限值</t>
-  </si>
-  <si>
-    <t>M3040</t>
-  </si>
-  <si>
-    <t>500摄氏度</t>
-  </si>
-  <si>
-    <t>固化炉温度下限值</t>
-  </si>
-  <si>
-    <t>M3044</t>
-  </si>
-  <si>
-    <t>480摄氏度</t>
-  </si>
-  <si>
-    <t>输送机设定速度</t>
-  </si>
-  <si>
-    <t>M3048</t>
-  </si>
-  <si>
-    <t>0.1m/s</t>
-  </si>
-  <si>
-    <t>输送机设定频率</t>
-  </si>
-  <si>
-    <t>M3052</t>
-  </si>
-  <si>
-    <t>30HZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,151 +613,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,240 +642,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1012,255 +697,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,9 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1295,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,7 +748,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1333,7 +773,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,7 +795,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1371,91 +811,166 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1466,7 +981,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1494,159 +1009,45 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1896,25 +1297,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="11.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,14 +1332,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1948,14 +1349,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -1965,14 +1366,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -1982,14 +1383,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
@@ -1999,14 +1400,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -2016,14 +1417,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
@@ -2033,14 +1434,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -2050,14 +1451,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
@@ -2067,14 +1468,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
@@ -2084,14 +1485,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
@@ -2101,14 +1502,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
@@ -2118,14 +1519,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
@@ -2135,14 +1536,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
@@ -2152,14 +1553,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
@@ -2169,14 +1570,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
@@ -2186,14 +1587,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
@@ -2203,14 +1604,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
@@ -2220,14 +1621,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
@@ -2237,14 +1638,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
@@ -2254,14 +1655,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21" t="s">
@@ -2271,14 +1672,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
@@ -2288,636 +1689,636 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="4" t="b">
+      <c r="E25" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="4" t="b">
+      <c r="E27" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="9" t="b">
+      <c r="E29" s="8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="D30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="D31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="D32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="D33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="14" t="b">
+      <c r="E34" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="14" t="b">
+      <c r="E35" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="D36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="20" t="s">
+      <c r="D37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="21" t="s">
+      <c r="D38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="19" t="b">
+      <c r="E39" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="22" t="s">
+      <c r="D40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="D41" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="24" t="s">
+      <c r="D42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="D43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="23" t="b">
+      <c r="E44" s="22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="27" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="27" t="s">
+      <c r="D45" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="27" t="s">
+      <c r="D46" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="29" t="s">
+      <c r="D47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="30" t="s">
+      <c r="D48" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="32" t="s">
+      <c r="D49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="32" t="s">
+      <c r="D50" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="33" t="s">
+      <c r="D51" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="31" t="b">
+      <c r="E52" s="30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="35" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="35" t="s">
+      <c r="D53" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="35" t="s">
+      <c r="D54" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="37" t="s">
+      <c r="D55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="37" t="s">
+      <c r="D56" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="39" t="s">
+      <c r="D57" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="39" t="s">
+      <c r="D58" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="D59" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2927,14 +2328,14 @@
       <c r="C60" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -2944,14 +2345,14 @@
       <c r="C61" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -2968,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2985,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -3002,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -3019,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3029,7 +2430,7 @@
       <c r="C66" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E66" t="b">
@@ -3039,7 +2440,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -3049,7 +2450,7 @@
       <c r="C67" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E67" t="b">
@@ -3059,7 +2460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -3079,35 +2480,35 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" t="s">
         <v>149</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
         <v>152</v>
-      </c>
-      <c r="C70" t="s">
-        <v>153</v>
       </c>
       <c r="D70" t="s">
         <v>132</v>
@@ -3119,15 +2520,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
         <v>154</v>
-      </c>
-      <c r="C71" t="s">
-        <v>155</v>
       </c>
       <c r="D71" t="s">
         <v>132</v>
@@ -3136,38 +2537,38 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="40" t="s">
+      <c r="B72" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>132</v>
@@ -3176,18 +2577,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
         <v>132</v>
@@ -3196,18 +2597,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
         <v>132</v>
@@ -3216,18 +2617,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
         <v>132</v>
@@ -3236,18 +2637,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
         <v>132</v>
@@ -3256,38 +2657,38 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
         <v>132</v>
@@ -3296,11 +2697,12 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>